--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -470,6 +470,24 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job ,marital,education,default ,housing,loan ,contact, month ,day_of_week, poutcome </t>
+  </si>
+  <si>
+    <t>x1 + x2+x3</t>
+  </si>
+  <si>
+    <t>xnew = basic.4y+basic.6y+basic.9y=NoDegree</t>
+  </si>
+  <si>
+    <t>preprocess</t>
+  </si>
+  <si>
+    <t>all attributes except Target</t>
   </si>
 </sst>
 </file>
@@ -754,15 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -773,6 +782,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1445,7 +1463,7 @@
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="49" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1469,7 +1487,7 @@
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="48" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1493,7 +1511,7 @@
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="49">
         <v>12718</v>
       </c>
     </row>
@@ -1501,7 +1519,7 @@
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="49">
         <v>1.470377E-2</v>
       </c>
     </row>
@@ -1509,7 +1527,7 @@
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="50" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1554,7 +1572,7 @@
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="51" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1583,7 +1601,7 @@
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="50" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1735,7 +1753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1792,7 +1812,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1830,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="B6" s="10" t="s">
         <v>38</v>
       </c>
@@ -1824,12 +1848,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="B7" s="21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21" t="s">
@@ -1875,6 +1901,9 @@
       <c r="A11" s="26" t="s">
         <v>54</v>
       </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
       <c r="C11" s="19" t="s">
         <v>55</v>
       </c>
@@ -1965,10 +1994,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>64</v>
@@ -2020,7 +2049,12 @@
       <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
       <c r="C23" s="33"/>
       <c r="E23" s="18"/>
       <c r="G23" s="33"/>
@@ -2068,10 +2102,15 @@
       <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="C29" s="33"/>
       <c r="E29" s="26" t="s">
         <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
       </c>
       <c r="G29" s="33"/>
     </row>
@@ -2118,7 +2157,9 @@
       <c r="C34" s="33"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="C35" s="33"/>
       <c r="E35" s="12" t="s">
         <v>76</v>
@@ -2221,15 +2262,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -2324,15 +2365,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -2451,14 +2492,14 @@
       <c r="C2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="40" t="s">
         <v>83</v>
       </c>

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -478,16 +478,13 @@
     <t xml:space="preserve">job ,marital,education,default ,housing,loan ,contact, month ,day_of_week, poutcome </t>
   </si>
   <si>
-    <t>x1 + x2+x3</t>
-  </si>
-  <si>
-    <t>xnew = basic.4y+basic.6y+basic.9y=NoDegree</t>
-  </si>
-  <si>
     <t>preprocess</t>
   </si>
   <si>
     <t>all attributes except Target</t>
+  </si>
+  <si>
+    <t>job,marital,education,default,housing,loan,contact,month,day_of_week,duration,campaign,pday,previous,poutcome(job:poutcome)</t>
   </si>
 </sst>
 </file>
@@ -1405,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1602,7 +1599,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1821,7 +1818,9 @@
       <c r="C5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
@@ -1839,7 +1838,9 @@
       <c r="C6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="F6" s="10" t="s">
         <v>38</v>
       </c>
@@ -1857,7 +1858,9 @@
       <c r="C7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="F7" s="21" t="s">
         <v>42</v>
       </c>
@@ -1994,10 +1997,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>64</v>
@@ -2050,10 +2053,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="33"/>
       <c r="E23" s="18"/>
@@ -2182,7 +2185,9 @@
       <c r="A37" s="20"/>
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
-      <c r="E37" s="18"/>
+      <c r="E37" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2232,7 +2237,12 @@
       <c r="A43" s="20"/>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
-      <c r="E43" s="18"/>
+      <c r="E43" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
       <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="192">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -486,12 +486,135 @@
   <si>
     <t>job,marital,education,default,housing,loan,contact,month,day_of_week,duration,campaign,pday,previous,poutcome(job:poutcome)</t>
   </si>
+  <si>
+    <t>Method=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         -</t>
+  </si>
+  <si>
+    <t>KAPPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          -</t>
+  </si>
+  <si>
+    <t>Method = linear,non-linear</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8928,0.7465 ,0.8667 </t>
+  </si>
+  <si>
+    <t>0.76293,0.7775,0.8762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5562,0.1811,0.5004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51629,0.9249,0.9707 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.90925, 0.5029 , 0.7917     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K =1 </t>
+  </si>
+  <si>
+    <t>ntrees =1500 ; mtry = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  CART,C50 trials = 5, #ofnodes = 10, # of cases per node = </t>
+  </si>
+  <si>
+    <t>Ensemble - bagging(decision trees)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894,0.8961  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5539, 0.5316  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74569,0.66451 </t>
+  </si>
+  <si>
+    <t>0.91281, 0.92548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52056, 0.53100  </t>
+  </si>
+  <si>
+    <t>GBM</t>
+  </si>
+  <si>
+    <t>Report the metrics with PCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8877 ,  0.7465 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50146 , 0.50146  ,0.22293     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.92229,  0.92229  ,0.77745 </t>
+  </si>
+  <si>
+    <t>0.61566 ,0.61566 ,0.79167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5562, 0.4893 , 0.5004  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: 0.93506 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894,0.8961   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74569,0.66451  </t>
+  </si>
+  <si>
+    <t>0.52056,0.53100</t>
+  </si>
+  <si>
+    <t>0.5539, 0.5316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91281,0.92548        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      -</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -539,6 +662,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -710,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -779,6 +909,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,6 +919,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1402,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2261,9 +2394,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2271,24 +2406,24 @@
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="38"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>81</v>
       </c>
@@ -2310,88 +2445,262 @@
       <c r="G3" s="40" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="C4" s="49">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0.93926209999999999</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.92276000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="C7" s="49">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0.46911000000000003</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="I7" s="49">
+        <v>0.93915999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="C8" s="49">
+        <v>0.9143</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0.53735999999999995</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0.64315999999999995</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="I8" s="49">
+        <v>0.96214999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="C10" s="49">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0.83621000000000001</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0.41467999999999999</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="49">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="I10" s="49">
+        <v>0.85014999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="C11" s="49">
+        <v>0.8659</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="E11" s="49">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="I11" s="49">
+        <v>0.85980000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
         <v>81</v>
       </c>
@@ -2414,7 +2723,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>107</v>
       </c>
@@ -2422,7 +2731,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
         <v>90</v>
       </c>
@@ -2430,7 +2739,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>92</v>
       </c>
@@ -2438,7 +2747,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
         <v>93</v>
       </c>
@@ -2446,7 +2755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>95</v>
       </c>
@@ -2454,7 +2763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
         <v>97</v>
       </c>
@@ -2462,22 +2771,361 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="49">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="D33" s="49">
+        <v>0.44912000000000002</v>
+      </c>
+      <c r="E33" s="49">
+        <v>0.67528999999999995</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="49">
+        <v>0.89448000000000005</v>
+      </c>
+      <c r="H33" s="49">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="I33" s="49">
+        <v>0.95596000000000003</v>
+      </c>
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="52"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="52"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="49">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="D36" s="49">
+        <v>0.46911000000000003</v>
+      </c>
+      <c r="E36" s="49">
+        <v>0.43086000000000002</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="49">
+        <v>0.3372</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36" s="52"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="49">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="D37" s="49">
+        <v>0.38721</v>
+      </c>
+      <c r="E37" s="49">
+        <v>0.64085999999999999</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="49">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="I37" s="49">
+        <v>0.96360999999999997</v>
+      </c>
+      <c r="J37" s="52"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="52"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="49">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="D39" s="49">
+        <v>0.83621000000000001</v>
+      </c>
+      <c r="E39" s="49">
+        <v>0.41467999999999999</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="49">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="I39" s="49">
+        <v>0.85014999999999996</v>
+      </c>
+      <c r="J39" s="52"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="49">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="D40" s="49">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="E40" s="49">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="49">
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="I40" s="49">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="J40" s="52"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2502,14 +3150,14 @@
       <c r="C2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="40" t="s">
         <v>83</v>
       </c>

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Hyper Tuning" sheetId="5" r:id="rId5"/>
     <sheet name="Consolidation" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="196">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -601,13 +601,25 @@
     <t xml:space="preserve">0.91281,0.92548        </t>
   </si>
   <si>
-    <t xml:space="preserve">       -</t>
-  </si>
-  <si>
     <t xml:space="preserve">            -</t>
   </si>
   <si>
     <t xml:space="preserve">      -</t>
+  </si>
+  <si>
+    <t>0.61311,0.5903</t>
+  </si>
+  <si>
+    <t>0.615833,0.8448,0.9210</t>
+  </si>
+  <si>
+    <t>0.5527,0.0.5527,0.3479</t>
+  </si>
+  <si>
+    <t>cp = 0.01, xval = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  CART,C50 </t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -910,6 +922,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,8 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2396,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2407,15 +2420,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -2445,10 +2458,10 @@
       <c r="G3" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="55" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2466,10 +2479,11 @@
         <v>0.52180000000000004</v>
       </c>
       <c r="E4">
-        <v>0.73640000000000005</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>189</v>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F4" s="54">
+        <f>2*D4*E4/SUM(D4,E4)</f>
+        <v>0.61066115439656543</v>
       </c>
       <c r="G4" s="49">
         <v>0.93926209999999999</v>
@@ -2486,7 +2500,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>166</v>
@@ -2497,10 +2511,10 @@
       <c r="E5" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>152</v>
       </c>
       <c r="H5" s="49" t="s">
@@ -2527,15 +2541,15 @@
         <v>160</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="54" t="s">
         <v>154</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="54" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2555,10 +2569,11 @@
       <c r="E7" s="49">
         <v>0.49469999999999997</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="58" t="s">
+      <c r="F7" s="54">
+        <f>2*D7*E7/SUM(D7,E7)</f>
+        <v>0.4815652815388925</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>154</v>
       </c>
       <c r="H7" s="49">
@@ -2584,10 +2599,11 @@
       <c r="E8" s="49">
         <v>0.64315999999999995</v>
       </c>
-      <c r="F8" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="58" t="s">
+      <c r="F8" s="54">
+        <f>2*D8*E8/SUM(D8,E8)</f>
+        <v>0.58551902144817525</v>
+      </c>
+      <c r="G8" s="54" t="s">
         <v>152</v>
       </c>
       <c r="H8" s="49">
@@ -2604,25 +2620,25 @@
       <c r="B9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="54" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2630,6 +2646,9 @@
       <c r="A10" s="41" t="s">
         <v>165</v>
       </c>
+      <c r="B10" s="53" t="s">
+        <v>194</v>
+      </c>
       <c r="C10" s="49">
         <v>0.84860000000000002</v>
       </c>
@@ -2639,10 +2658,11 @@
       <c r="E10" s="49">
         <v>0.41467999999999999</v>
       </c>
-      <c r="F10" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="58" t="s">
+      <c r="F10" s="54">
+        <f>2*D10*E10/SUM(D10,E10)</f>
+        <v>0.55442055304623106</v>
+      </c>
+      <c r="G10" s="54" t="s">
         <v>152</v>
       </c>
       <c r="H10" s="49">
@@ -2665,10 +2685,11 @@
       <c r="E11" s="49">
         <v>0.45279999999999998</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="58" t="s">
+      <c r="F11" s="54">
+        <f>2*D11*E11/SUM(D11,E11)</f>
+        <v>0.60554462168886281</v>
+      </c>
+      <c r="G11" s="54" t="s">
         <v>152</v>
       </c>
       <c r="H11" s="49">
@@ -2684,15 +2705,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -2730,6 +2751,7 @@
       <c r="B19" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
@@ -2782,20 +2804,20 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="58" t="s">
-        <v>191</v>
+      <c r="B29" s="54" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
@@ -2836,10 +2858,10 @@
       <c r="G32" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="55" t="s">
         <v>156</v>
       </c>
       <c r="J32" s="52"/>
@@ -2860,8 +2882,9 @@
       <c r="E33" s="49">
         <v>0.67528999999999995</v>
       </c>
-      <c r="F33" s="58" t="s">
-        <v>154</v>
+      <c r="F33" s="54">
+        <f>2*D33*E33/SUM(D33,E33)</f>
+        <v>0.53945846230467542</v>
       </c>
       <c r="G33" s="49">
         <v>0.89448000000000005</v>
@@ -2891,9 +2914,9 @@
         <v>186</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="54" t="s">
         <v>152</v>
       </c>
       <c r="H34" s="49" t="s">
@@ -2921,15 +2944,15 @@
         <v>179</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="54" t="s">
         <v>154</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="I35" s="58" t="s">
+      <c r="I35" s="54" t="s">
         <v>180</v>
       </c>
       <c r="J35" s="52"/>
@@ -2950,10 +2973,11 @@
       <c r="E36" s="49">
         <v>0.43086000000000002</v>
       </c>
-      <c r="F36" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="G36" s="58" t="s">
+      <c r="F36" s="54">
+        <f>2*D36*E36/SUM(D36,E36)</f>
+        <v>0.44917216040534685</v>
+      </c>
+      <c r="G36" s="54" t="s">
         <v>154</v>
       </c>
       <c r="H36" s="49">
@@ -2980,10 +3004,11 @@
       <c r="E37" s="49">
         <v>0.64085999999999999</v>
       </c>
-      <c r="F37" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="58" t="s">
+      <c r="F37" s="54">
+        <f>2*D37*E37/SUM(D37,E37)</f>
+        <v>0.48274417228398842</v>
+      </c>
+      <c r="G37" s="54" t="s">
         <v>152</v>
       </c>
       <c r="H37" s="49">
@@ -3001,25 +3026,25 @@
       <c r="B38" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="58" t="s">
+      <c r="F38" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="I38" s="58" t="s">
+      <c r="I38" s="54" t="s">
         <v>177</v>
       </c>
       <c r="J38" s="52"/>
@@ -3028,7 +3053,9 @@
       <c r="A39" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="53" t="s">
+        <v>194</v>
+      </c>
       <c r="C39" s="49">
         <v>0.84860000000000002</v>
       </c>
@@ -3038,11 +3065,12 @@
       <c r="E39" s="49">
         <v>0.41467999999999999</v>
       </c>
-      <c r="F39" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" s="58" t="s">
-        <v>152</v>
+      <c r="F39" s="54">
+        <f>2*C39*D39/SUM(C39,D39)</f>
+        <v>0.84235944231100246</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="H39" s="49">
         <v>0.47539999999999999</v>
@@ -3066,11 +3094,12 @@
       <c r="E40" s="49">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F40" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40" s="58" t="s">
-        <v>152</v>
+      <c r="F40" s="54">
+        <f>2*C40*D40/SUM(C40,D40)</f>
+        <v>0.79695331242158085</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>189</v>
       </c>
       <c r="H40" s="49">
         <v>0.41210000000000002</v>
@@ -3133,7 +3162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3150,14 +3181,14 @@
       <c r="C2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="40" t="s">
         <v>83</v>
       </c>

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Hyper Tuning" sheetId="5" r:id="rId5"/>
     <sheet name="Consolidation" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="337">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -601,32 +601,455 @@
     <t xml:space="preserve">0.91281,0.92548        </t>
   </si>
   <si>
+    <t xml:space="preserve">       -</t>
+  </si>
+  <si>
     <t xml:space="preserve">            -</t>
   </si>
   <si>
     <t xml:space="preserve">      -</t>
   </si>
   <si>
-    <t>0.61311,0.5903</t>
-  </si>
-  <si>
-    <t>0.615833,0.8448,0.9210</t>
-  </si>
-  <si>
-    <t>0.5527,0.0.5527,0.3479</t>
-  </si>
-  <si>
-    <t>cp = 0.01, xval = 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method =  CART,C50 </t>
+    <t>SPECIFICITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TRAIN,TEST</t>
+  </si>
+  <si>
+    <t>0.84,0.84</t>
+  </si>
+  <si>
+    <t>0.47,0.48</t>
+  </si>
+  <si>
+    <t>0.40,0.41</t>
+  </si>
+  <si>
+    <t>0.89,0.89</t>
+  </si>
+  <si>
+    <t>0.98,0.98</t>
+  </si>
+  <si>
+    <t>0.89,0.90</t>
+  </si>
+  <si>
+    <t>0.27,0.28</t>
+  </si>
+  <si>
+    <t>0.63,0.65</t>
+  </si>
+  <si>
+    <t>0.33,0.34</t>
+  </si>
+  <si>
+    <t>0.97,0.98</t>
+  </si>
+  <si>
+    <t>0.84,0.83</t>
+  </si>
+  <si>
+    <t>0.26,0.26</t>
+  </si>
+  <si>
+    <t>0.27,0.26</t>
+  </si>
+  <si>
+    <t>0.17,0.17</t>
+  </si>
+  <si>
+    <t>0.90,0.90</t>
+  </si>
+  <si>
+    <t>0.91,0.91</t>
+  </si>
+  <si>
+    <t>0.33,0.32</t>
+  </si>
+  <si>
+    <t>0.68,0.69</t>
+  </si>
+  <si>
+    <t>0.40,0.40</t>
+  </si>
+  <si>
+    <t>K =10</t>
+  </si>
+  <si>
+    <t>0.91,0.90</t>
+  </si>
+  <si>
+    <t>0.51,0.44</t>
+  </si>
+  <si>
+    <t>0.67,0.60</t>
+  </si>
+  <si>
+    <t>0.54,0.46</t>
+  </si>
+  <si>
+    <t>0.97,0.96</t>
+  </si>
+  <si>
+    <t>1,0.91</t>
+  </si>
+  <si>
+    <t>1,0.53</t>
+  </si>
+  <si>
+    <t>1,64</t>
+  </si>
+  <si>
+    <t>1,0.54</t>
+  </si>
+  <si>
+    <t>1,0.96</t>
+  </si>
+  <si>
+    <t>0.87,0.86</t>
+  </si>
+  <si>
+    <t>0.45,0.44</t>
+  </si>
+  <si>
+    <t>0.54,0.52</t>
+  </si>
+  <si>
+    <t>0.86,0.85</t>
+  </si>
+  <si>
+    <t>0.87,0.88</t>
+  </si>
+  <si>
+    <t>0.52,0.52</t>
+  </si>
+  <si>
+    <t>0.73,0.74</t>
+  </si>
+  <si>
+    <t>0.55,0.55</t>
+  </si>
+  <si>
+    <t>0.96,0.96</t>
+  </si>
+  <si>
+    <t>0.52,0.51</t>
+  </si>
+  <si>
+    <t>0.51,0.49</t>
+  </si>
+  <si>
+    <t>0.65,0.64</t>
+  </si>
+  <si>
+    <t>0.92,0.92</t>
+  </si>
+  <si>
+    <t>0.58,0.54</t>
+  </si>
+  <si>
+    <t>0.69,0.65</t>
+  </si>
+  <si>
+    <t>0.59,0.54</t>
+  </si>
+  <si>
+    <t>0.74,0.74</t>
+  </si>
+  <si>
+    <t>0.93,0.89</t>
+  </si>
+  <si>
+    <t>0.82,,0.67</t>
+  </si>
+  <si>
+    <t>0.65,0.51</t>
+  </si>
+  <si>
+    <t>0.69,0.52</t>
+  </si>
+  <si>
+    <t>0.95,0.92</t>
+  </si>
+  <si>
+    <t>0.76,0.75</t>
+  </si>
+  <si>
+    <t>0.51,0.51</t>
+  </si>
+  <si>
+    <t>0.90,0.91</t>
+  </si>
+  <si>
+    <t>0.48,0.51</t>
+  </si>
+  <si>
+    <t>0.21,0.22</t>
+  </si>
+  <si>
+    <t>0.17,0.16</t>
+  </si>
+  <si>
+    <t>0.77,0.77</t>
+  </si>
+  <si>
+    <t>ntrees =200 ; mtry = 10</t>
+  </si>
+  <si>
+    <t>0.97,0.90</t>
+  </si>
+  <si>
+    <t>1,0.71</t>
+  </si>
+  <si>
+    <t>0.84,0.57</t>
+  </si>
+  <si>
+    <t>0.90,0.58</t>
+  </si>
+  <si>
+    <t>0.97,0.93</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bagging</t>
+  </si>
+  <si>
+    <t>0.85,0.85</t>
+  </si>
+  <si>
+    <t>0.41,0.41</t>
+  </si>
+  <si>
+    <t>0.47,0.47</t>
+  </si>
+  <si>
+    <t>0.39,0.38</t>
+  </si>
+  <si>
+    <t>0.76,0.76</t>
+  </si>
+  <si>
+    <t>0.43,0.43</t>
+  </si>
+  <si>
+    <t>0.46,0.47</t>
+  </si>
+  <si>
+    <t>0.86,0.86</t>
+  </si>
+  <si>
+    <t>0.92,0.89</t>
+  </si>
+  <si>
+    <t>0.73,0.58</t>
+  </si>
+  <si>
+    <t>0.64,0.48</t>
+  </si>
+  <si>
+    <t>0.95,0.93</t>
+  </si>
+  <si>
+    <t>0.88,0.88</t>
+  </si>
+  <si>
+    <t>0.9,0.5</t>
+  </si>
+  <si>
+    <t>0.54,0.56</t>
+  </si>
+  <si>
+    <t>0.89,0.88</t>
+  </si>
+  <si>
+    <t>0.48,0.49</t>
+  </si>
+  <si>
+    <t>0.21,0.20</t>
+  </si>
+  <si>
+    <t>0.79,0.79</t>
+  </si>
+  <si>
+    <t>0.41,0.40</t>
+  </si>
+  <si>
+    <t>0.67,0.59</t>
+  </si>
+  <si>
+    <t>0.47,0.40</t>
+  </si>
+  <si>
+    <t>0.98,0..97</t>
+  </si>
+  <si>
+    <t>0.99,0.91</t>
+  </si>
+  <si>
+    <t>0.99,0.56</t>
+  </si>
+  <si>
+    <t>0.99,0.546</t>
+  </si>
+  <si>
+    <t>0.99,0.96</t>
+  </si>
+  <si>
+    <t>0.49,0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70,0.70      </t>
+  </si>
+  <si>
+    <t>0.82,0.82</t>
+  </si>
+  <si>
+    <t>0.73,0.61</t>
+  </si>
+  <si>
+    <t>0.60,0.53</t>
+  </si>
+  <si>
+    <t>Report the metrics without smote data</t>
+  </si>
+  <si>
+    <t>Report the metrics with smote data</t>
+  </si>
+  <si>
+    <t>0.39,0.39</t>
+  </si>
+  <si>
+    <t>0.39,0.40</t>
+  </si>
+  <si>
+    <t>0.39,0.41</t>
+  </si>
+  <si>
+    <t>0.39,0.42</t>
+  </si>
+  <si>
+    <t>0.76,0.77</t>
+  </si>
+  <si>
+    <t>0.76,0.78</t>
+  </si>
+  <si>
+    <t>0.76,0.79</t>
+  </si>
+  <si>
+    <t>0.76,0.80</t>
+  </si>
+  <si>
+    <t>0.67,0.61</t>
+  </si>
+  <si>
+    <t>0.67,0.62</t>
+  </si>
+  <si>
+    <t>0.52,0.53</t>
+  </si>
+  <si>
+    <t>0.52,0.54</t>
+  </si>
+  <si>
+    <t>0.52,0.55</t>
+  </si>
+  <si>
+    <t>0.51,0.48</t>
+  </si>
+  <si>
+    <t>0.80,0.57</t>
+  </si>
+  <si>
+    <t>0.70,0.61</t>
+  </si>
+  <si>
+    <t>0.61,0.61</t>
+  </si>
+  <si>
+    <t>0.607,0.607</t>
+  </si>
+  <si>
+    <t>0.61,0.607</t>
+  </si>
+  <si>
+    <t>0.29,0.31</t>
+  </si>
+  <si>
+    <t>0.44,0.437</t>
+  </si>
+  <si>
+    <t>0.91,0.63</t>
+  </si>
+  <si>
+    <t>0.89,0.64</t>
+  </si>
+  <si>
+    <t>0.55,0.56</t>
+  </si>
+  <si>
+    <t>0.57,0.56</t>
+  </si>
+  <si>
+    <t>0.63,0.59</t>
+  </si>
+  <si>
+    <t>0.38,0.39</t>
+  </si>
+  <si>
+    <t>0.44,0.44</t>
+  </si>
+  <si>
+    <t>0.58,0.51</t>
+  </si>
+  <si>
+    <t>1,0.6</t>
+  </si>
+  <si>
+    <t>0.60,0.59</t>
+  </si>
+  <si>
+    <t>Method = linear,cost=0.01,gamma=1</t>
+  </si>
+  <si>
+    <t>Method = non-linear,cost=0.01,gamma=1</t>
+  </si>
+  <si>
+    <t>ntrees =800 ; mtry = 10</t>
+  </si>
+  <si>
+    <t>cv.folds = 8, interaction.depth = 3,shrinkage =0.005,verbose=FALSE,distribution='bernoulli',data= train_data, n.trees = 1500,n.cores=1</t>
+  </si>
+  <si>
+    <t>c.p = 0.1, xval = 10</t>
+  </si>
+  <si>
+    <t>cp = 0.1, xval = 10</t>
+  </si>
+  <si>
+    <t>cv.folds = 8, interaction.depth = 3,shrinkage =0.005,verbose=FALSE,distribution='bernoulli',data= smoter_dataa, n.trees = 1500,n.cores=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  CART,C50 trials = , #ofnodes = , # of cases per node = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  C50 trials = , #ofnodes = , # of cases per node = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  CART, trials = , #ofnodes = , # of cases per node = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  C50 ,trials = , #ofnodes = , # of cases per node = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -641,13 +1064,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3D85C6"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -677,6 +1093,48 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3D85C6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -852,7 +1310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -890,15 +1348,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -911,29 +1367,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,17 +1876,17 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="47"/>
+    <col min="2" max="2" width="14.42578125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="45"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
@@ -1431,7 +1895,7 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -1440,7 +1904,7 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1"/>
@@ -1449,7 +1913,7 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="43">
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
@@ -1458,7 +1922,7 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="44">
         <v>5</v>
       </c>
       <c r="C6" s="8"/>
@@ -1490,7 +1954,7 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
@@ -1499,7 +1963,7 @@
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
@@ -1508,7 +1972,7 @@
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="44">
         <v>8</v>
       </c>
       <c r="C9" s="8"/>
@@ -1606,7 +2070,7 @@
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1630,7 +2094,7 @@
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1654,7 +2118,7 @@
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="47">
         <v>12718</v>
       </c>
     </row>
@@ -1662,7 +2126,7 @@
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="47">
         <v>1.470377E-2</v>
       </c>
     </row>
@@ -1670,7 +2134,7 @@
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1715,7 +2179,7 @@
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="49" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1744,7 +2208,7 @@
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2407,751 +2871,1748 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" style="55" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="60" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="63">
         <v>0.89429999999999998</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="55">
         <v>0.52180000000000004</v>
       </c>
-      <c r="E4">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="F4" s="54">
-        <f>2*D4*E4/SUM(D4,E4)</f>
-        <v>0.61066115439656543</v>
-      </c>
-      <c r="G4" s="49">
+      <c r="E4" s="55">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="63">
         <v>0.93926209999999999</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="63">
         <v>0.55349999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="55">
         <v>0.92276000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="63">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="D7" s="63">
+        <v>0.46911000000000003</v>
+      </c>
+      <c r="E7" s="63">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="63">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="I7" s="63">
+        <v>0.93915999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="63">
+        <v>0.9143</v>
+      </c>
+      <c r="D8" s="63">
+        <v>0.53735999999999995</v>
+      </c>
+      <c r="E8" s="63">
+        <v>0.64315999999999995</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="63">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="I8" s="63">
+        <v>0.96214999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="63">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="D10" s="63">
+        <v>0.83621000000000001</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0.41467999999999999</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="63">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="I10" s="63">
+        <v>0.85014999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="63">
+        <v>0.8659</v>
+      </c>
+      <c r="D11" s="63">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="E11" s="63">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="63">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="I11" s="63">
+        <v>0.85980000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="57"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="63">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="D33" s="63">
+        <v>0.44912000000000002</v>
+      </c>
+      <c r="E33" s="63">
+        <v>0.67528999999999995</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="63">
+        <v>0.89448000000000005</v>
+      </c>
+      <c r="H33" s="63">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="I33" s="63">
+        <v>0.95596000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" s="63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="63">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="D36" s="63">
+        <v>0.46911000000000003</v>
+      </c>
+      <c r="E36" s="63">
+        <v>0.43086000000000002</v>
+      </c>
+      <c r="F36" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="63">
+        <v>0.3372</v>
+      </c>
+      <c r="I36" s="63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="63">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="D37" s="63">
+        <v>0.38721</v>
+      </c>
+      <c r="E37" s="63">
+        <v>0.64085999999999999</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="63">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="I37" s="63">
+        <v>0.96360999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="63">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="D39" s="63">
+        <v>0.83621000000000001</v>
+      </c>
+      <c r="E39" s="63">
+        <v>0.41467999999999999</v>
+      </c>
+      <c r="F39" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="63">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="I39" s="63">
+        <v>0.85014999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="63">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="D40" s="63">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="E40" s="63">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="F40" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="63">
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="I40" s="63">
+        <v>0.89939999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G47" s="63">
+        <v>0.93</v>
+      </c>
+      <c r="H47" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="I47" s="63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="I49" s="63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="49" t="s">
+      <c r="B50" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="G50" s="64"/>
+      <c r="H50" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="I50" s="63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="64"/>
+      <c r="H51" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="I51" s="63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="G52" s="64"/>
+      <c r="H52" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" s="64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" s="64"/>
+      <c r="H53" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="I53" s="63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="G54" s="64"/>
+      <c r="H54" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="I54" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="I56" s="63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="61"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="61"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="58"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="I64" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="G65" s="63">
+        <v>0.94</v>
+      </c>
+      <c r="H65" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="I65" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="C66" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="F66" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="I66" s="63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F67" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="I67" s="63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E68" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="F68" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="G68" s="64"/>
+      <c r="H68" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="I68" s="63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C69" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G69" s="64"/>
+      <c r="H69" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="I69" s="63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="G70" s="64"/>
+      <c r="H70" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="I70" s="64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="49">
-        <v>0.88619999999999999</v>
-      </c>
-      <c r="D7" s="49">
-        <v>0.46911000000000003</v>
-      </c>
-      <c r="E7" s="49">
-        <v>0.49469999999999997</v>
-      </c>
-      <c r="F7" s="54">
-        <f>2*D7*E7/SUM(D7,E7)</f>
-        <v>0.4815652815388925</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="49">
-        <v>0.41770000000000002</v>
-      </c>
-      <c r="I7" s="49">
-        <v>0.93915999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="B71" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="G71" s="64"/>
+      <c r="H71" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="I71" s="63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="49">
-        <v>0.9143</v>
-      </c>
-      <c r="D8" s="49">
-        <v>0.53735999999999995</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0.64315999999999995</v>
-      </c>
-      <c r="F8" s="54">
-        <f>2*D8*E8/SUM(D8,E8)</f>
-        <v>0.58551902144817525</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="49">
-        <v>0.53820000000000001</v>
-      </c>
-      <c r="I8" s="49">
-        <v>0.96214999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="B72" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="G72" s="64"/>
+      <c r="H72" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="I72" s="63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="49">
-        <v>0.84860000000000002</v>
-      </c>
-      <c r="D10" s="49">
-        <v>0.83621000000000001</v>
-      </c>
-      <c r="E10" s="49">
-        <v>0.41467999999999999</v>
-      </c>
-      <c r="F10" s="54">
-        <f>2*D10*E10/SUM(D10,E10)</f>
-        <v>0.55442055304623106</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="49">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="I10" s="49">
-        <v>0.85014999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="E73" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="I73" s="64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="49">
-        <v>0.8659</v>
-      </c>
-      <c r="D11" s="49">
-        <v>0.91379999999999995</v>
-      </c>
-      <c r="E11" s="49">
-        <v>0.45279999999999998</v>
-      </c>
-      <c r="F11" s="54">
-        <f>2*D11*E11/SUM(D11,E11)</f>
-        <v>0.60554462168886281</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="49">
-        <v>0.53559999999999997</v>
-      </c>
-      <c r="I11" s="49">
-        <v>0.85980000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="B74" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C74" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="F74" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" s="64"/>
+      <c r="H74" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="I74" s="63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="61"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B81" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="54"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="C81" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I81" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="58"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="H82" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="I82" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G83" s="63">
+        <v>0.89</v>
+      </c>
+      <c r="H83" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="I83" s="63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="B84" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="E84" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="F84" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="I84" s="63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="I85" s="63" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="B86" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="F86" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="G86" s="64"/>
+      <c r="H86" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="I86" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="F87" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="G87" s="64"/>
+      <c r="H87" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="I87" s="63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E88" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="F88" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="G88" s="64"/>
+      <c r="H88" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="I88" s="64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="B89" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="E89" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="F89" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="G89" s="64"/>
+      <c r="H89" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="I89" s="63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="54" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="J32" s="52"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="49">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="D33" s="49">
-        <v>0.44912000000000002</v>
-      </c>
-      <c r="E33" s="49">
-        <v>0.67528999999999995</v>
-      </c>
-      <c r="F33" s="54">
-        <f>2*D33*E33/SUM(D33,E33)</f>
-        <v>0.53945846230467542</v>
-      </c>
-      <c r="G33" s="49">
-        <v>0.89448000000000005</v>
-      </c>
-      <c r="H33" s="49">
-        <v>0.46739999999999998</v>
-      </c>
-      <c r="I33" s="49">
-        <v>0.95596000000000003</v>
-      </c>
-      <c r="J33" s="52"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34" s="52"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="I35" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="J35" s="52"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="49">
-        <v>0.88619999999999999</v>
-      </c>
-      <c r="D36" s="49">
-        <v>0.46911000000000003</v>
-      </c>
-      <c r="E36" s="49">
-        <v>0.43086000000000002</v>
-      </c>
-      <c r="F36" s="54">
-        <f>2*D36*E36/SUM(D36,E36)</f>
-        <v>0.44917216040534685</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="49">
-        <v>0.3372</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="J36" s="52"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="49">
-        <v>0.87329999999999997</v>
-      </c>
-      <c r="D37" s="49">
-        <v>0.38721</v>
-      </c>
-      <c r="E37" s="49">
-        <v>0.64085999999999999</v>
-      </c>
-      <c r="F37" s="54">
-        <f>2*D37*E37/SUM(D37,E37)</f>
-        <v>0.48274417228398842</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="49">
-        <v>0.47739999999999999</v>
-      </c>
-      <c r="I37" s="49">
-        <v>0.96360999999999997</v>
-      </c>
-      <c r="J37" s="52"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="J38" s="52"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" s="49">
-        <v>0.84860000000000002</v>
-      </c>
-      <c r="D39" s="49">
-        <v>0.83621000000000001</v>
-      </c>
-      <c r="E39" s="49">
-        <v>0.41467999999999999</v>
-      </c>
-      <c r="F39" s="54">
-        <f>2*C39*D39/SUM(C39,D39)</f>
-        <v>0.84235944231100246</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="49">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="I39" s="49">
-        <v>0.85014999999999996</v>
-      </c>
-      <c r="J39" s="52"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
+      <c r="B90" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="F90" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="G90" s="64"/>
+      <c r="H90" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="I90" s="63" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="I91" s="64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="49">
-        <v>0.80310000000000004</v>
-      </c>
-      <c r="D40" s="49">
-        <v>0.79090000000000005</v>
-      </c>
-      <c r="E40" s="49">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="F40" s="54">
-        <f>2*C40*D40/SUM(C40,D40)</f>
-        <v>0.79695331242158085</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="49">
-        <v>0.41210000000000002</v>
-      </c>
-      <c r="I40" s="49">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="J40" s="52"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
+      <c r="B92" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E92" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F92" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="G92" s="64"/>
+      <c r="H92" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="I92" s="63" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D97" s="63"/>
+      <c r="G97" s="63"/>
+    </row>
+    <row r="98" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="G98" s="63"/>
+    </row>
+    <row r="99" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="G99" s="63"/>
+    </row>
+    <row r="100" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="G100" s="63"/>
+    </row>
+    <row r="101" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="G101" s="63"/>
+    </row>
+    <row r="102" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="G102" s="63"/>
+    </row>
+    <row r="103" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="G103" s="63"/>
+    </row>
+    <row r="104" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="G104" s="63"/>
+    </row>
+    <row r="105" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="G105" s="63"/>
+    </row>
+    <row r="106" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="G106" s="64"/>
+    </row>
+    <row r="107" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="G107" s="63"/>
+    </row>
+    <row r="108" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G108" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B79:H79"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3162,52 +4623,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
+      <c r="A1" s="37"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="40" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="38" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="10"/>
@@ -3215,32 +4674,32 @@
       <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="10"/>
       <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="10"/>
       <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="10"/>
       <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="10"/>
@@ -3253,32 +4712,32 @@
       <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="10"/>
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="18"/>
       <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="18"/>
       <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -3287,24 +4746,24 @@
       <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="18"/>
       <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="18"/>
       <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="26" t="s">
@@ -3313,24 +4772,24 @@
       <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="18"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="18"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -3339,24 +4798,24 @@
       <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="18"/>
       <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="18"/>
       <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="26" t="s">
@@ -3365,88 +4824,88 @@
       <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="18"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39" t="s">
         <v>97</v>
       </c>
       <c r="D22" s="18"/>
       <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="18"/>
       <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="18"/>
       <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="18"/>
       <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39" t="s">
         <v>100</v>
       </c>
       <c r="D26" s="18"/>
       <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39" t="s">
         <v>100</v>
       </c>
       <c r="D27" s="18"/>
       <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="18"/>
       <c r="I28" s="33"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="18"/>
       <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39" t="s">
         <v>101</v>
       </c>
       <c r="D30" s="18"/>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39" t="s">
         <v>101</v>
       </c>
       <c r="D31" s="20"/>
@@ -3476,7 +4935,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3551,7 +5010,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="42" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="356">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -263,12 +263,6 @@
     <t>Important Attributes</t>
   </si>
   <si>
-    <t>Report the metrics</t>
-  </si>
-  <si>
-    <t>Suitable metric for this problem</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -293,69 +287,24 @@
     <t>Logistic</t>
   </si>
   <si>
-    <t xml:space="preserve">Method = </t>
-  </si>
-  <si>
     <t>Decision Trees</t>
   </si>
   <si>
-    <t xml:space="preserve">Method = C50, trials = 5, #ofnodes = 10, # of cases per node = </t>
-  </si>
-  <si>
     <t>SVM</t>
   </si>
   <si>
     <t>KNN</t>
   </si>
   <si>
-    <t xml:space="preserve">K = , distance= </t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
-    <t xml:space="preserve">ntrees = ; mtry = </t>
-  </si>
-  <si>
     <t>ANN</t>
   </si>
   <si>
     <t>learning rate; method related parameters; epoches=</t>
   </si>
   <si>
-    <t>Ensemble - stacking</t>
-  </si>
-  <si>
-    <t>Ensemble weighted stack</t>
-  </si>
-  <si>
-    <t>Ensemble - mode</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>RMSE</t>
-  </si>
-  <si>
-    <t>MAPE</t>
-  </si>
-  <si>
-    <t>NMSE</t>
-  </si>
-  <si>
-    <t>MAP</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method = CART, CP= </t>
-  </si>
-  <si>
     <t>Experiment #</t>
   </si>
   <si>
@@ -363,9 +312,6 @@
   </si>
   <si>
     <t>Tuning parameters</t>
-  </si>
-  <si>
-    <t>Pruning</t>
   </si>
   <si>
     <t>Insights / Other Inputs</t>
@@ -490,126 +436,15 @@
     <t>Method=</t>
   </si>
   <si>
-    <t xml:space="preserve">         -</t>
-  </si>
-  <si>
     <t>KAPPA</t>
   </si>
   <si>
-    <t xml:space="preserve">          -</t>
-  </si>
-  <si>
-    <t>Method = linear,non-linear</t>
-  </si>
-  <si>
-    <t>Specificity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8928,0.7465 ,0.8667 </t>
-  </si>
-  <si>
-    <t>0.76293,0.7775,0.8762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5562,0.1811,0.5004 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51629,0.9249,0.9707 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.90925, 0.5029 , 0.7917     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K =1 </t>
-  </si>
-  <si>
-    <t>ntrees =1500 ; mtry = 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method =  CART,C50 trials = 5, #ofnodes = 10, # of cases per node = </t>
-  </si>
-  <si>
-    <t>Ensemble - bagging(decision trees)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894,0.8961  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5539, 0.5316  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74569,0.66451 </t>
-  </si>
-  <si>
-    <t>0.91281, 0.92548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52056, 0.53100  </t>
-  </si>
-  <si>
     <t>GBM</t>
   </si>
   <si>
     <t>Report the metrics with PCA</t>
   </si>
   <si>
-    <t xml:space="preserve">              -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8877 ,  0.7465 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50146 , 0.50146  ,0.22293     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.92229,  0.92229  ,0.77745 </t>
-  </si>
-  <si>
-    <t>0.61566 ,0.61566 ,0.79167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5562, 0.4893 , 0.5004  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">: 0.93506 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894,0.8961   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74569,0.66451  </t>
-  </si>
-  <si>
-    <t>0.52056,0.53100</t>
-  </si>
-  <si>
-    <t>0.5539, 0.5316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91281,0.92548        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      -</t>
-  </si>
-  <si>
     <t>SPECIFICITY</t>
   </si>
   <si>
@@ -631,21 +466,6 @@
     <t>0.98,0.98</t>
   </si>
   <si>
-    <t>0.89,0.90</t>
-  </si>
-  <si>
-    <t>0.27,0.28</t>
-  </si>
-  <si>
-    <t>0.63,0.65</t>
-  </si>
-  <si>
-    <t>0.33,0.34</t>
-  </si>
-  <si>
-    <t>0.97,0.98</t>
-  </si>
-  <si>
     <t>0.84,0.83</t>
   </si>
   <si>
@@ -691,15 +511,9 @@
     <t>0.97,0.96</t>
   </si>
   <si>
-    <t>1,0.91</t>
-  </si>
-  <si>
     <t>1,0.53</t>
   </si>
   <si>
-    <t>1,64</t>
-  </si>
-  <si>
     <t>1,0.54</t>
   </si>
   <si>
@@ -718,9 +532,6 @@
     <t>0.86,0.85</t>
   </si>
   <si>
-    <t>0.87,0.88</t>
-  </si>
-  <si>
     <t>0.52,0.52</t>
   </si>
   <si>
@@ -997,9 +808,6 @@
     <t>0.63,0.59</t>
   </si>
   <si>
-    <t>0.38,0.39</t>
-  </si>
-  <si>
     <t>0.44,0.44</t>
   </si>
   <si>
@@ -1033,23 +841,272 @@
     <t>cv.folds = 8, interaction.depth = 3,shrinkage =0.005,verbose=FALSE,distribution='bernoulli',data= smoter_dataa, n.trees = 1500,n.cores=1</t>
   </si>
   <si>
-    <t xml:space="preserve">Method =  CART,C50 trials = , #ofnodes = , # of cases per node = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method =  C50 trials = , #ofnodes = , # of cases per node = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method =  CART, trials = , #ofnodes = , # of cases per node = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method =  C50 ,trials = , #ofnodes = , # of cases per node = </t>
+    <t>0.90,0.89</t>
+  </si>
+  <si>
+    <t>0.34,0.34</t>
+  </si>
+  <si>
+    <t>0.28,0.27</t>
+  </si>
+  <si>
+    <t>0.65,0.63</t>
+  </si>
+  <si>
+    <t>0.98,0.97</t>
+  </si>
+  <si>
+    <t>0.88,0.87</t>
+  </si>
+  <si>
+    <t>1,0.92</t>
+  </si>
+  <si>
+    <t>1,0.64</t>
+  </si>
+  <si>
+    <t>0.56,0.55</t>
+  </si>
+  <si>
+    <t>0.48,0.47</t>
+  </si>
+  <si>
+    <t>cutoff=0.1</t>
+  </si>
+  <si>
+    <t>cutoff=0.48</t>
+  </si>
+  <si>
+    <t>without smote data</t>
+  </si>
+  <si>
+    <t>with smotedata</t>
+  </si>
+  <si>
+    <t>cutoff=0.3</t>
+  </si>
+  <si>
+    <t>with pca</t>
+  </si>
+  <si>
+    <t>Method = CART, trials = 1, control = rpart.control(cp =0.01))</t>
+  </si>
+  <si>
+    <t>without smote</t>
+  </si>
+  <si>
+    <t>Method = CART</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trials = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> control = rpart.control(cp =0.01))</t>
+  </si>
+  <si>
+    <t>with smote</t>
+  </si>
+  <si>
+    <t>0.69,0.67</t>
+  </si>
+  <si>
+    <t>Method=binomial</t>
+  </si>
+  <si>
+    <t>Method = C50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pca with smote</t>
+  </si>
+  <si>
+    <t>cp=1</t>
+  </si>
+  <si>
+    <t>ntrees=1500</t>
+  </si>
+  <si>
+    <t>0.93,0.90</t>
+  </si>
+  <si>
+    <t>0.69,0.54</t>
+  </si>
+  <si>
+    <t>0.81,0.68</t>
+  </si>
+  <si>
+    <t>0.94,0.93</t>
+  </si>
+  <si>
+    <t>0.60,0.73</t>
+  </si>
+  <si>
+    <t>0.63,0.52</t>
+  </si>
+  <si>
+    <t>Method = linear</t>
+  </si>
+  <si>
+    <t>cost=0.01</t>
+  </si>
+  <si>
+    <t>gamma=1</t>
+  </si>
+  <si>
+    <t>sigma = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> degree =3</t>
+  </si>
+  <si>
+    <t>Method="tanhdot"</t>
+  </si>
+  <si>
+    <t>0.29,0.28</t>
+  </si>
+  <si>
+    <t>0.30,0.29</t>
+  </si>
+  <si>
+    <t>0.16,0.16</t>
+  </si>
+  <si>
+    <t>0.48,0.48</t>
+  </si>
+  <si>
+    <t>0.21,0.21</t>
+  </si>
+  <si>
+    <t>0.24,0.24</t>
+  </si>
+  <si>
+    <t>0.33,0.33</t>
+  </si>
+  <si>
+    <t>0.67,0.66</t>
+  </si>
+  <si>
+    <t>0.36,0.36</t>
+  </si>
+  <si>
+    <t>0.29,0.29</t>
+  </si>
+  <si>
+    <t>Method="rbfdot", C=40,cross=100</t>
+  </si>
+  <si>
+    <t>Method="rbfdot"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C=40</t>
+  </si>
+  <si>
+    <t>cross=100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K = 10  </t>
+  </si>
+  <si>
+    <t>ntrees =800 ; mtry = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pca without smote</t>
+  </si>
+  <si>
+    <t>0.99,0.50</t>
+  </si>
+  <si>
+    <t>0.99,0.52</t>
+  </si>
+  <si>
+    <t>0.99,0.6</t>
+  </si>
+  <si>
+    <t>Ensemble - Bagging</t>
+  </si>
+  <si>
+    <t>control = rpart.control(cp = 0.1, xval = 10)</t>
+  </si>
+  <si>
+    <t>Ensemble - GBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  CART trials =1 , #ofnodes = , # of cases per node = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  C50 trials =1 , #ofnodes = , # of cases per node = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  CART, trials =1 , #ofnodes = , # of cases per node = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method =  C50 ,trials = 1, #ofnodes = , # of cases per node = </t>
+  </si>
+  <si>
+    <t>cv.folds = 8, interaction.depth = 3,shrinkage =0.005,verbose=FALSE,distribution='bernoulli',data= train_data, n.trees = 1500,n.cores=1          with smote</t>
+  </si>
+  <si>
+    <t>cv.folds = 8, interaction.depth = 3,shrinkage =0.005,verbose=FALSE,distribution='bernoulli',data= train_data, n.trees = 1500,n.cores=1          without smote</t>
+  </si>
+  <si>
+    <t>cv.folds = 8, interaction.depth = 3,shrinkage =0.005,verbose=FALSE,distribution='bernoulli',data= train_data, n.trees = 1500,n.cores=1 pca with smote</t>
+  </si>
+  <si>
+    <t>XG BOOST</t>
+  </si>
+  <si>
+    <t>0.98,0.91</t>
+  </si>
+  <si>
+    <t>0.86,0.52</t>
+  </si>
+  <si>
+    <t>0.99,0.70</t>
+  </si>
+  <si>
+    <t>0.99,0.93</t>
+  </si>
+  <si>
+    <t>0.78,0.52</t>
+  </si>
+  <si>
+    <t>0.87,0.61</t>
+  </si>
+  <si>
+    <t>0.93,0.96</t>
+  </si>
+  <si>
+    <t>0.96,0.94</t>
+  </si>
+  <si>
+    <t>0.94,0.52</t>
+  </si>
+  <si>
+    <t>0.96,0.70</t>
+  </si>
+  <si>
+    <t>0.96,0.91</t>
+  </si>
+  <si>
+    <t>0.95,0.66</t>
+  </si>
+  <si>
+    <t>0.99,0.44</t>
+  </si>
+  <si>
+    <t>0.96,0.54</t>
+  </si>
+  <si>
+    <t>0.76,0.47</t>
+  </si>
+  <si>
+    <t>0.99,0.92</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1104,13 +1161,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3D85C6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1118,13 +1168,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1141,7 +1184,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,12 +1225,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -1310,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1348,10 +1385,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1377,27 +1413,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1876,17 +1914,17 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="45"/>
+    <col min="2" max="2" width="14.42578125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="43"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
@@ -1895,7 +1933,7 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -1904,7 +1942,7 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1"/>
@@ -1913,7 +1951,7 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
@@ -1922,7 +1960,7 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <v>5</v>
       </c>
       <c r="C6" s="8"/>
@@ -1954,7 +1992,7 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
@@ -1963,7 +2001,7 @@
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="42">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
@@ -1972,7 +2010,7 @@
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="43">
         <v>8</v>
       </c>
       <c r="C9" s="8"/>
@@ -2012,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2038,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2052,7 +2090,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2063,15 +2101,15 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>135</v>
+      <c r="B5" s="46" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2087,15 +2125,15 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>134</v>
+      <c r="B8" s="45" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2103,7 +2141,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2111,14 +2149,14 @@
         <v>22</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>12718</v>
       </c>
     </row>
@@ -2126,7 +2164,7 @@
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>1.470377E-2</v>
       </c>
     </row>
@@ -2134,8 +2172,8 @@
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>141</v>
+      <c r="B13" s="47" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,7 +2186,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2156,7 +2194,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2164,7 +2202,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,15 +2210,15 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>143</v>
+      <c r="B19" s="48" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2201,15 +2239,15 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>144</v>
+      <c r="B23" s="47" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2360,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2420,7 +2458,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>34</v>
@@ -2429,7 +2467,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>34</v>
@@ -2440,7 +2478,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>38</v>
@@ -2449,7 +2487,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>38</v>
@@ -2460,7 +2498,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>35</v>
@@ -2469,7 +2507,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>42</v>
@@ -2515,7 +2553,7 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>55</v>
@@ -2663,10 +2701,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C23" s="33"/>
       <c r="E23" s="18"/>
@@ -2716,14 +2754,14 @@
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C29" s="33"/>
       <c r="E29" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G29" s="33"/>
     </row>
@@ -2771,7 +2809,7 @@
     </row>
     <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C35" s="33"/>
       <c r="E35" s="12" t="s">
@@ -2796,7 +2834,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
       <c r="E37" s="18" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G37" s="33"/>
     </row>
@@ -2848,7 +2886,7 @@
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
       <c r="E43" s="18" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F43" t="s">
         <v>70</v>
@@ -2871,1748 +2909,1632 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" style="55" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="55"/>
+    <col min="1" max="1" width="29.140625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" style="49" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="57"/>
+      <c r="B1" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="B3" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="C3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="D3" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="E3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="F3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="G3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="H3" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="57"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="B5" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0.93</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="B6" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" s="57"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="57"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="C11" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="54" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="F11" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="57"/>
+      <c r="B18" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="54">
+        <v>0.94</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="57"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B26" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="55"/>
+      <c r="H26" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="H27" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="63">
-        <v>0.89429999999999998</v>
-      </c>
-      <c r="D4" s="55">
-        <v>0.52180000000000004</v>
-      </c>
-      <c r="E4" s="55">
-        <v>0.73640000000000005</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="63">
-        <v>0.93926209999999999</v>
-      </c>
-      <c r="H4" s="63">
-        <v>0.55349999999999999</v>
-      </c>
-      <c r="I4" s="55">
-        <v>0.92276000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="F28" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="57"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="63" t="s">
+      <c r="B30" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" s="55"/>
+      <c r="H30" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" s="57"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="57"/>
+      <c r="B37" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="57"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="57"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="54">
+        <v>0.89</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="57"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="64" t="s">
+      <c r="G42" s="54"/>
+      <c r="H42" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" s="57"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="J43" s="57"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="55"/>
+      <c r="H44" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="I44" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="J44" s="57"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="55"/>
+      <c r="H45" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" s="57"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="55"/>
+      <c r="H46" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="J46" s="57"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="63">
-        <v>0.88619999999999999</v>
-      </c>
-      <c r="D7" s="63">
-        <v>0.46911000000000003</v>
-      </c>
-      <c r="E7" s="63">
-        <v>0.49469999999999997</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="63">
-        <v>0.41770000000000002</v>
-      </c>
-      <c r="I7" s="63">
-        <v>0.93915999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="63">
-        <v>0.9143</v>
-      </c>
-      <c r="D8" s="63">
-        <v>0.53735999999999995</v>
-      </c>
-      <c r="E8" s="63">
-        <v>0.64315999999999995</v>
-      </c>
-      <c r="F8" s="64" t="s">
+      <c r="D47" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47" s="57"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="63">
-        <v>0.53820000000000001</v>
-      </c>
-      <c r="I8" s="63">
-        <v>0.96214999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="64" t="s">
+      <c r="C48" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" s="55"/>
+      <c r="H48" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="I48" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="57"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="63">
-        <v>0.84860000000000002</v>
-      </c>
-      <c r="D10" s="63">
-        <v>0.83621000000000001</v>
-      </c>
-      <c r="E10" s="63">
-        <v>0.41467999999999999</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="63">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="I10" s="63">
-        <v>0.85014999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="63">
-        <v>0.8659</v>
-      </c>
-      <c r="D11" s="63">
-        <v>0.91379999999999995</v>
-      </c>
-      <c r="E11" s="63">
-        <v>0.45279999999999998</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="63">
-        <v>0.53559999999999997</v>
-      </c>
-      <c r="I11" s="63">
-        <v>0.85980000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="57"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="64" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="57"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="63">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="D33" s="63">
-        <v>0.44912000000000002</v>
-      </c>
-      <c r="E33" s="63">
-        <v>0.67528999999999995</v>
-      </c>
-      <c r="F33" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" s="63">
-        <v>0.89448000000000005</v>
-      </c>
-      <c r="H33" s="63">
-        <v>0.46739999999999998</v>
-      </c>
-      <c r="I33" s="63">
-        <v>0.95596000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="I34" s="63" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="I35" s="64" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="63">
-        <v>0.88619999999999999</v>
-      </c>
-      <c r="D36" s="63">
-        <v>0.46911000000000003</v>
-      </c>
-      <c r="E36" s="63">
-        <v>0.43086000000000002</v>
-      </c>
-      <c r="F36" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="63">
-        <v>0.3372</v>
-      </c>
-      <c r="I36" s="63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="63">
-        <v>0.87329999999999997</v>
-      </c>
-      <c r="D37" s="63">
-        <v>0.38721</v>
-      </c>
-      <c r="E37" s="63">
-        <v>0.64085999999999999</v>
-      </c>
-      <c r="F37" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="63">
-        <v>0.47739999999999999</v>
-      </c>
-      <c r="I37" s="63">
-        <v>0.96360999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="I38" s="64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="63">
-        <v>0.84860000000000002</v>
-      </c>
-      <c r="D39" s="63">
-        <v>0.83621000000000001</v>
-      </c>
-      <c r="E39" s="63">
-        <v>0.41467999999999999</v>
-      </c>
-      <c r="F39" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="63">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="I39" s="63">
-        <v>0.85014999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="63">
-        <v>0.80310000000000004</v>
-      </c>
-      <c r="D40" s="63">
-        <v>0.79090000000000005</v>
-      </c>
-      <c r="E40" s="63">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="F40" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="63">
-        <v>0.41210000000000002</v>
-      </c>
-      <c r="I40" s="63">
-        <v>0.89939999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="I45" s="59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="H46" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="I46" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="G47" s="63">
-        <v>0.93</v>
-      </c>
-      <c r="H47" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="I47" s="63" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="C48" s="63" t="s">
+      <c r="G49" s="55"/>
+      <c r="H49" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="57"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50" s="55"/>
+      <c r="H50" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="I50" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="I48" s="63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="F49" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="I49" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="F50" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="G50" s="64"/>
-      <c r="H50" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="I50" s="63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="I51" s="63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C52" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="G52" s="64"/>
-      <c r="H52" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="I52" s="64" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="I53" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="C54" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="I54" s="63" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="C56" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="D56" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="I56" s="63" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H63" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="I63" s="59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="58"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="D64" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="F64" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="G64" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="H64" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="I64" s="59" t="s">
-        <v>193</v>
-      </c>
+      <c r="J50" s="57"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="57"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="57"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="63" t="s">
-        <v>229</v>
-      </c>
-      <c r="E65" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="G65" s="63">
-        <v>0.94</v>
-      </c>
-      <c r="H65" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="I65" s="63" t="s">
-        <v>232</v>
-      </c>
+      <c r="A65" s="52"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="C66" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" s="63" t="s">
-        <v>240</v>
-      </c>
-      <c r="E66" s="63" t="s">
-        <v>229</v>
-      </c>
-      <c r="F66" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="I66" s="63" t="s">
-        <v>209</v>
-      </c>
+      <c r="A66" s="52"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="E67" s="63" t="s">
-        <v>243</v>
-      </c>
-      <c r="F67" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="I67" s="63" t="s">
-        <v>245</v>
-      </c>
+      <c r="A67" s="52"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="E68" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="F68" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="G68" s="64"/>
-      <c r="H68" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="I68" s="63" t="s">
-        <v>248</v>
-      </c>
+      <c r="A68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C69" s="63" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="E69" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="F69" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="G69" s="64"/>
-      <c r="H69" s="63" t="s">
-        <v>251</v>
-      </c>
-      <c r="I69" s="63" t="s">
-        <v>252</v>
-      </c>
+      <c r="A69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C70" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E70" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="F70" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="G70" s="64"/>
-      <c r="H70" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="I70" s="64" t="s">
-        <v>198</v>
-      </c>
+      <c r="A70" s="52"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="55"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E71" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F71" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="G71" s="64"/>
-      <c r="H71" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I71" s="63" t="s">
-        <v>259</v>
-      </c>
+      <c r="A71" s="52"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="C72" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="D72" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="E72" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="G72" s="64"/>
-      <c r="H72" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="I72" s="63" t="s">
-        <v>258</v>
-      </c>
+      <c r="A72" s="52"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="B73" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="C73" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="E73" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="I73" s="64" t="s">
-        <v>261</v>
-      </c>
+      <c r="A73" s="52"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="C74" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="E74" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="F74" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="G74" s="64"/>
-      <c r="H74" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="I74" s="63" t="s">
-        <v>228</v>
-      </c>
+      <c r="A74" s="52"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="46"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="61"/>
+      <c r="A75" s="52"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F81" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H81" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="I81" s="59" t="s">
-        <v>192</v>
-      </c>
+      <c r="A81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="58"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="D82" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E82" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="G82" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="H82" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="I82" s="59" t="s">
-        <v>193</v>
-      </c>
+      <c r="A82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D83" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="E83" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="F83" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="G83" s="63">
-        <v>0.89</v>
-      </c>
-      <c r="H83" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="I83" s="63" t="s">
-        <v>232</v>
-      </c>
+      <c r="A83" s="52"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="C84" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="D84" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="E84" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="I84" s="63" t="s">
-        <v>268</v>
-      </c>
+      <c r="A84" s="52"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="C85" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="D85" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="E85" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="F85" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="G85" s="63"/>
-      <c r="H85" s="63" t="s">
-        <v>271</v>
-      </c>
-      <c r="I85" s="63" t="s">
-        <v>272</v>
-      </c>
+      <c r="A85" s="52"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="C86" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="D86" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="E86" s="63" t="s">
-        <v>301</v>
-      </c>
-      <c r="F86" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="G86" s="64"/>
-      <c r="H86" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="I86" s="63" t="s">
-        <v>236</v>
-      </c>
+      <c r="A86" s="52"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C87" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="E87" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="F87" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="G87" s="64"/>
-      <c r="H87" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="I87" s="63" t="s">
-        <v>279</v>
-      </c>
+      <c r="A87" s="52"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D88" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E88" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F88" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G88" s="64"/>
-      <c r="H88" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I88" s="64" t="s">
-        <v>259</v>
-      </c>
+      <c r="A88" s="52"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="55"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="E89" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="F89" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="G89" s="64"/>
-      <c r="H89" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="I89" s="63" t="s">
-        <v>283</v>
-      </c>
+      <c r="A89" s="52"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="D90" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="E90" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="F90" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="G90" s="64"/>
-      <c r="H90" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="I90" s="63" t="s">
-        <v>287</v>
-      </c>
+      <c r="A90" s="52"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="B91" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="C91" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="D91" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="E91" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="F91" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="I91" s="64" t="s">
-        <v>208</v>
-      </c>
+      <c r="A91" s="52"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="C92" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="D92" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="E92" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="F92" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="G92" s="64"/>
-      <c r="H92" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="I92" s="63" t="s">
-        <v>272</v>
-      </c>
+      <c r="A92" s="52"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
     </row>
     <row r="97" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D97" s="63"/>
-      <c r="G97" s="63"/>
+      <c r="D97" s="54"/>
+      <c r="G97" s="54"/>
     </row>
     <row r="98" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="G98" s="63"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="G98" s="54"/>
     </row>
     <row r="99" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="G99" s="63"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="G99" s="54"/>
     </row>
     <row r="100" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="G100" s="63"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="G100" s="54"/>
     </row>
     <row r="101" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D101" s="63"/>
-      <c r="E101" s="63"/>
-      <c r="G101" s="63"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="G101" s="54"/>
     </row>
     <row r="102" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D102" s="63"/>
-      <c r="E102" s="63"/>
-      <c r="G102" s="63"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="G102" s="54"/>
     </row>
     <row r="103" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-      <c r="G103" s="63"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="G103" s="54"/>
     </row>
     <row r="104" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
-      <c r="G104" s="63"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="G104" s="54"/>
     </row>
     <row r="105" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="G105" s="63"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="G105" s="54"/>
     </row>
     <row r="106" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="G106" s="64"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="G106" s="55"/>
     </row>
     <row r="107" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="G107" s="63"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="G107" s="54"/>
     </row>
     <row r="108" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G108" s="63"/>
+      <c r="G108" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B60:H60"/>
     <mergeCell ref="B79:H79"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4621,299 +4543,1189 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:P35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="38" t="s">
+      <c r="K2" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="N2" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="O2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39" t="s">
-        <v>88</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="26"/>
       <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39" t="s">
-        <v>88</v>
+      <c r="J3" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="10"/>
+      <c r="D4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" t="s">
+        <v>281</v>
+      </c>
       <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39" t="s">
-        <v>88</v>
+      <c r="J4" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" s="54">
+        <v>0.93</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="10"/>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
       <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39" t="s">
-        <v>88</v>
+      <c r="J5" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="N5" s="54">
+        <v>0.94</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="10"/>
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" t="s">
+        <v>284</v>
+      </c>
       <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39" t="s">
-        <v>90</v>
+      <c r="J6" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="N6" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="26" t="s">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39" t="s">
+      <c r="J7" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="P14" s="54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="N15" s="55"/>
+      <c r="O15" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="P15" s="54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" t="s">
+        <v>307</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="P16" s="54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="N17" s="55"/>
+      <c r="O17" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="P17" s="54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" t="s">
+        <v>294</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="55"/>
+      <c r="O18" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M19" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="N19" s="55"/>
+      <c r="O19" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="P19" s="55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" t="s">
+        <v>322</v>
+      </c>
+      <c r="H20" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="L20" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="N20" s="55"/>
+      <c r="O20" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P20" s="55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="N21" s="55"/>
+      <c r="O21" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="P21" s="54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" t="s">
+        <v>290</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="N22" s="55"/>
+      <c r="O22" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="P22" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H23" t="s">
+        <v>294</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="O23" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39" t="s">
+      <c r="D24" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="K24" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="N24" s="55"/>
+      <c r="O24" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
+      <c r="D25" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H25" t="s">
+        <v>290</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="N25" s="55"/>
+      <c r="O25" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="P25" s="54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H26" t="s">
+        <v>325</v>
+      </c>
       <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="18"/>
+      <c r="J26" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="N26" s="55"/>
+      <c r="O26" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H27" t="s">
+        <v>294</v>
+      </c>
       <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="18"/>
+      <c r="J27" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="M27" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="N27" s="55"/>
+      <c r="O27" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="P27" s="54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" t="s">
+        <v>290</v>
+      </c>
       <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="18"/>
+      <c r="J28" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q28" s="58"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" t="s">
+        <v>294</v>
+      </c>
       <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="18"/>
+      <c r="J29" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="P29" s="55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" t="s">
+        <v>336</v>
+      </c>
       <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
+      <c r="J30" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="N30" s="55"/>
+      <c r="O30" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" s="54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" t="s">
+        <v>337</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="N31" s="55"/>
+      <c r="O31" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" t="s">
+        <v>338</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="N32" s="55"/>
+      <c r="O32" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" s="54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="H33" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="J33" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M33" t="s">
+        <v>345</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="P33" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="H34" t="s">
+        <v>290</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" t="s">
+        <v>340</v>
+      </c>
+      <c r="K34" t="s">
+        <v>343</v>
+      </c>
+      <c r="L34" t="s">
+        <v>346</v>
+      </c>
+      <c r="M34" t="s">
+        <v>347</v>
+      </c>
+      <c r="O34" t="s">
+        <v>348</v>
+      </c>
+      <c r="P34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="H35" t="s">
+        <v>294</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" t="s">
+        <v>350</v>
+      </c>
+      <c r="K35" t="s">
+        <v>351</v>
+      </c>
+      <c r="L35" t="s">
+        <v>352</v>
+      </c>
+      <c r="M35" t="s">
+        <v>353</v>
+      </c>
+      <c r="O35" t="s">
+        <v>354</v>
+      </c>
+      <c r="P35" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4935,83 +5747,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>114</v>
+      <c r="A2" s="40" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>129</v>
+      <c r="A17" s="41" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist_Template .xlsx
+++ b/Checklist_Template .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Schedule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="363">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -339,15 +339,6 @@
   </si>
   <si>
     <t xml:space="preserve">Is it a overfitting problem? </t>
-  </si>
-  <si>
-    <t>How is Bias-Variance?</t>
-  </si>
-  <si>
-    <t>What is the effect of Normalization?</t>
-  </si>
-  <si>
-    <t>How are variables distributed? Any Statistical Analysis performed on each Variable?</t>
   </si>
   <si>
     <t>Is single model performing well? Or an ensemble technique is performing?</t>
@@ -937,9 +928,6 @@
     <t>0.94,0.93</t>
   </si>
   <si>
-    <t>0.60,0.73</t>
-  </si>
-  <si>
     <t>0.63,0.52</t>
   </si>
   <si>
@@ -1100,6 +1088,39 @@
   </si>
   <si>
     <t>0.99,0.92</t>
+  </si>
+  <si>
+    <t>0.41,0.39</t>
+  </si>
+  <si>
+    <t>0.73,0.66</t>
+  </si>
+  <si>
+    <t>Data is linear because I got more accuracy in linear model compare to non linear</t>
+  </si>
+  <si>
+    <t>Ensemble is performing well</t>
+  </si>
+  <si>
+    <t>It gives best error metric values</t>
+  </si>
+  <si>
+    <t>Preprocessing methods are used</t>
+  </si>
+  <si>
+    <t>XGBOOST is performing better because it gives best error metric value</t>
+  </si>
+  <si>
+    <t>By applying tuning parameters we got more accuracy compare to without tuning parameters</t>
+  </si>
+  <si>
+    <t>No use of feature generation</t>
+  </si>
+  <si>
+    <t>No challenges</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2090,7 +2111,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2101,7 +2122,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2109,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2125,7 +2146,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2133,7 +2154,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,7 +2162,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2149,7 +2170,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2173,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2186,7 +2207,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2194,7 +2215,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2202,7 +2223,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2210,7 +2231,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2218,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2239,7 +2260,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2247,7 +2268,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2458,7 +2479,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>34</v>
@@ -2467,7 +2488,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>34</v>
@@ -2478,7 +2499,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>38</v>
@@ -2487,7 +2508,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>38</v>
@@ -2498,7 +2519,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>35</v>
@@ -2507,7 +2528,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>42</v>
@@ -2553,7 +2574,7 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>55</v>
@@ -2701,10 +2722,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="33"/>
       <c r="E23" s="18"/>
@@ -2754,14 +2775,14 @@
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C29" s="33"/>
       <c r="E29" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G29" s="33"/>
     </row>
@@ -2809,7 +2830,7 @@
     </row>
     <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C35" s="33"/>
       <c r="E35" s="12" t="s">
@@ -2834,7 +2855,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
       <c r="E37" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G37" s="33"/>
     </row>
@@ -2886,7 +2907,7 @@
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
       <c r="E43" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
         <v>70</v>
@@ -2925,7 +2946,7 @@
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="57"/>
       <c r="B1" s="56" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C1" s="56"/>
       <c r="D1" s="56"/>
@@ -2971,10 +2992,10 @@
         <v>85</v>
       </c>
       <c r="H3" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>134</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>137</v>
       </c>
       <c r="J3" s="57"/>
     </row>
@@ -2982,25 +3003,25 @@
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J4" s="57"/>
     </row>
@@ -3009,28 +3030,28 @@
         <v>86</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="F5" s="57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G5" s="54">
         <v>0.93</v>
       </c>
       <c r="H5" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>143</v>
       </c>
       <c r="J5" s="57"/>
     </row>
@@ -3039,26 +3060,26 @@
         <v>87</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J6" s="57"/>
     </row>
@@ -3067,26 +3088,26 @@
         <v>87</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J7" s="57"/>
     </row>
@@ -3095,26 +3116,26 @@
         <v>88</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C8" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>272</v>
-      </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="46" t="s">
         <v>270</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>273</v>
       </c>
       <c r="J8" s="57"/>
     </row>
@@ -3123,26 +3144,26 @@
         <v>88</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J9" s="57"/>
     </row>
@@ -3151,26 +3172,26 @@
         <v>88</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J10" s="57"/>
     </row>
@@ -3179,26 +3200,26 @@
         <v>89</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>156</v>
-      </c>
       <c r="F11" s="57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J11" s="57"/>
     </row>
@@ -3207,26 +3228,26 @@
         <v>90</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J12" s="57"/>
     </row>
@@ -3248,29 +3269,29 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G14" s="55"/>
       <c r="H14" s="54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J14" s="57"/>
     </row>
@@ -3313,7 +3334,7 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="59" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -3371,10 +3392,10 @@
         <v>85</v>
       </c>
       <c r="H21" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="51" t="s">
         <v>134</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>137</v>
       </c>
       <c r="J21" s="57"/>
     </row>
@@ -3382,25 +3403,25 @@
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J22" s="57"/>
     </row>
@@ -3409,28 +3430,28 @@
         <v>86</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G23" s="54">
         <v>0.94</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I23" s="54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J23" s="57"/>
     </row>
@@ -3439,26 +3460,26 @@
         <v>87</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G24" s="54"/>
       <c r="H24" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J24" s="57"/>
     </row>
@@ -3467,26 +3488,26 @@
         <v>87</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G25" s="54"/>
       <c r="H25" s="54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J25" s="57"/>
     </row>
@@ -3495,26 +3516,26 @@
         <v>88</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G26" s="55"/>
       <c r="H26" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J26" s="57"/>
     </row>
@@ -3523,26 +3544,26 @@
         <v>88</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G27" s="55"/>
       <c r="H27" s="54" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J27" s="57"/>
     </row>
@@ -3551,26 +3572,26 @@
         <v>88</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J28" s="57"/>
     </row>
@@ -3579,26 +3600,26 @@
         <v>89</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J29" s="57"/>
     </row>
@@ -3607,82 +3628,82 @@
         <v>90</v>
       </c>
       <c r="B30" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>193</v>
-      </c>
       <c r="F30" s="57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="54" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I30" s="54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G31" s="55"/>
       <c r="H31" s="55" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I32" s="46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J32" s="57"/>
     </row>
@@ -3737,7 +3758,7 @@
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="B37" s="59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
@@ -3783,10 +3804,10 @@
         <v>85</v>
       </c>
       <c r="H39" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="51" t="s">
         <v>134</v>
-      </c>
-      <c r="I39" s="51" t="s">
-        <v>137</v>
       </c>
       <c r="J39" s="57"/>
     </row>
@@ -3794,25 +3815,25 @@
       <c r="A40" s="50"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H40" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J40" s="57"/>
     </row>
@@ -3821,28 +3842,28 @@
         <v>86</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G41" s="54">
         <v>0.89</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I41" s="54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J41" s="57"/>
     </row>
@@ -3851,26 +3872,26 @@
         <v>87</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G42" s="54"/>
       <c r="H42" s="54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I42" s="54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J42" s="57"/>
     </row>
@@ -3879,26 +3900,26 @@
         <v>87</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="54" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I43" s="54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J43" s="57"/>
     </row>
@@ -3907,26 +3928,26 @@
         <v>88</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E44" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F44" s="54" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G44" s="55"/>
       <c r="H44" s="54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I44" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44" s="57"/>
     </row>
@@ -3935,26 +3956,26 @@
         <v>88</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F45" s="54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G45" s="55"/>
       <c r="H45" s="54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I45" s="54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J45" s="57"/>
     </row>
@@ -3963,26 +3984,26 @@
         <v>88</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F46" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I46" s="55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J46" s="57"/>
     </row>
@@ -3991,26 +4012,26 @@
         <v>89</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="54" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I47" s="54" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J47" s="57"/>
     </row>
@@ -4019,82 +4040,82 @@
         <v>90</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J48" s="57"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J49" s="57"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I50" s="54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J50" s="57"/>
     </row>
@@ -4545,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:P35"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4588,10 +4609,10 @@
         <v>85</v>
       </c>
       <c r="O2" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="51" t="s">
         <v>134</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4603,25 +4624,25 @@
       <c r="D3" s="26"/>
       <c r="I3" s="33"/>
       <c r="J3" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4631,32 +4652,32 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="M4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N4" s="54">
         <v>0.93</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4666,32 +4687,32 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N5" s="54">
         <v>0.94</v>
       </c>
       <c r="O5" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P5" s="54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4701,32 +4722,32 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N6" s="54">
         <v>0.9</v>
       </c>
       <c r="O6" s="54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P6" s="54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4736,30 +4757,30 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N7" s="54"/>
       <c r="O7" s="54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P7" s="54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4769,36 +4790,36 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" t="s">
         <v>287</v>
-      </c>
-      <c r="E8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" t="s">
-        <v>290</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L8" s="54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M8" s="58" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N8" s="54"/>
       <c r="O8" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P8" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4807,36 +4828,36 @@
         <v>87</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K9" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="M9" s="55" t="s">
         <v>163</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>166</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4845,39 +4866,39 @@
         <v>87</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" t="s">
         <v>293</v>
       </c>
-      <c r="E10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" t="s">
-        <v>296</v>
-      </c>
       <c r="H10" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N10" s="54"/>
       <c r="O10" s="54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P10" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,39 +4907,39 @@
         <v>87</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" t="s">
         <v>293</v>
       </c>
-      <c r="E11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G11" t="s">
-        <v>296</v>
-      </c>
       <c r="H11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="46" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L11" s="54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M11" s="58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N11" s="54"/>
       <c r="O11" s="46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P11" s="46" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4927,39 +4948,39 @@
         <v>87</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" t="s">
         <v>293</v>
       </c>
-      <c r="E12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F12" t="s">
-        <v>295</v>
-      </c>
-      <c r="G12" t="s">
-        <v>296</v>
-      </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="54" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="L12" s="46" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N12" s="54"/>
       <c r="O12" s="54" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P12" s="54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4968,30 +4989,30 @@
         <v>88</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>272</v>
-      </c>
       <c r="M13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N13" s="55"/>
       <c r="O13" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="46" t="s">
         <v>270</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5000,36 +5021,36 @@
         <v>88</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L14" s="54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N14" s="55"/>
       <c r="O14" s="54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P14" s="54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5038,36 +5059,36 @@
         <v>88</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="K15" s="54" t="s">
-        <v>234</v>
+        <v>210</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>352</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M15" s="54" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N15" s="55"/>
       <c r="O15" s="54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P15" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5076,36 +5097,36 @@
         <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N16" s="55"/>
       <c r="O16" s="46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P16" s="54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5114,36 +5135,36 @@
         <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L17" s="46" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M17" s="58" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N17" s="55"/>
       <c r="O17" s="46" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P17" s="54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5152,36 +5173,36 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L18" s="46" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N18" s="55"/>
       <c r="O18" s="54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P18" s="54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5190,30 +5211,30 @@
         <v>88</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L19" s="46" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N19" s="55"/>
       <c r="O19" s="46" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P19" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5222,36 +5243,36 @@
         <v>88</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L20" s="46" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M20" s="58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N20" s="55"/>
       <c r="O20" s="54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P20" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5260,30 +5281,30 @@
         <v>89</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L21" s="54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N21" s="55"/>
       <c r="O21" s="54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P21" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5292,30 +5313,30 @@
         <v>89</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K22" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L22" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M22" s="58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N22" s="55"/>
       <c r="O22" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P22" s="54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5324,30 +5345,30 @@
         <v>89</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I23" s="33"/>
       <c r="J23" s="54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L23" s="54" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M23" s="55" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N23" s="55"/>
       <c r="O23" s="54" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P23" s="46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5356,30 +5377,30 @@
         <v>90</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M24" s="58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N24" s="55"/>
       <c r="O24" s="54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P24" s="54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5388,30 +5409,30 @@
         <v>90</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L25" s="54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M25" s="58" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N25" s="55"/>
       <c r="O25" s="54" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P25" s="54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5420,30 +5441,30 @@
         <v>90</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H26" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I26" s="33"/>
       <c r="J26" s="54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K26" s="54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L26" s="54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M26" s="55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N26" s="55"/>
       <c r="O26" s="54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P26" s="54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5452,269 +5473,269 @@
         <v>90</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H27" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M27" s="55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N27" s="55"/>
       <c r="O27" s="46" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P27" s="54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
       <c r="B28" s="38" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" s="55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N28" s="55"/>
       <c r="O28" s="55" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P28" s="55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="58"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="38" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I29" s="33"/>
       <c r="J29" s="55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K29" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L29" s="54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M29" s="55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N29" s="55"/>
       <c r="O29" s="55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P29" s="55" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38"/>
       <c r="B30" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I30" s="33"/>
       <c r="J30" s="54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M30" s="58" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N30" s="55"/>
       <c r="O30" s="54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P30" s="54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="38"/>
       <c r="B31" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I31" s="33"/>
       <c r="J31" s="46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K31" s="54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L31" s="54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M31" s="58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N31" s="55"/>
       <c r="O31" s="54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P31" s="46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="38"/>
       <c r="B32" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I32" s="33"/>
       <c r="J32" s="54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K32" s="46" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L32" s="54" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M32" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N32" s="55"/>
       <c r="O32" s="54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P32" s="54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
       <c r="B33" s="38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D33" s="18"/>
       <c r="H33" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L33" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="K33" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="L33" s="46" t="s">
-        <v>344</v>
-      </c>
       <c r="M33" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O33" s="46" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P33" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D34" s="18"/>
       <c r="H34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K34" t="s">
+        <v>339</v>
+      </c>
+      <c r="L34" t="s">
+        <v>342</v>
+      </c>
+      <c r="M34" t="s">
         <v>343</v>
       </c>
-      <c r="L34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M34" t="s">
-        <v>347</v>
-      </c>
       <c r="O34" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P34" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="38"/>
       <c r="B35" s="38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D35" s="18"/>
       <c r="H35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I35" s="33"/>
       <c r="J35" t="s">
+        <v>346</v>
+      </c>
+      <c r="K35" t="s">
+        <v>347</v>
+      </c>
+      <c r="L35" t="s">
+        <v>348</v>
+      </c>
+      <c r="M35" t="s">
+        <v>349</v>
+      </c>
+      <c r="O35" t="s">
         <v>350</v>
       </c>
-      <c r="K35" t="s">
+      <c r="P35" t="s">
         <v>351</v>
-      </c>
-      <c r="L35" t="s">
-        <v>352</v>
-      </c>
-      <c r="M35" t="s">
-        <v>353</v>
-      </c>
-      <c r="O35" t="s">
-        <v>354</v>
-      </c>
-      <c r="P35" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -5737,93 +5758,116 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A17"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>111</v>
+      <c r="B14" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
